--- a/Income/V_inc.xlsx
+++ b/Income/V_inc.xlsx
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.0</v>
+        <v>0.6731</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.6854</v>
